--- a/Outros Programas/Produtos_pandas.xlsx
+++ b/Outros Programas/Produtos_pandas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,12 +456,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Preça Atualizado</t>
+          <t>Preço Atualizado</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Preço Atualizado</t>
+          <t>Comissão</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Responsável</t>
         </is>
       </c>
     </row>
@@ -483,10 +488,15 @@
         <v>1.4</v>
       </c>
       <c r="E2" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="F2" t="n">
-        <v>1400</v>
+        <v>70</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Marcelo</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -510,7 +520,12 @@
         <v>910</v>
       </c>
       <c r="F3" t="n">
-        <v>910</v>
+        <v>45.5</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Luciana</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -531,10 +546,15 @@
         <v>1.4</v>
       </c>
       <c r="E4" t="n">
-        <v>1595</v>
+        <v>2030</v>
       </c>
       <c r="F4" t="n">
-        <v>2030</v>
+        <v>101.5</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Marcelo</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -558,7 +578,12 @@
         <v>1170</v>
       </c>
       <c r="F5" t="n">
-        <v>1170</v>
+        <v>58.5</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Luciana</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -579,10 +604,15 @@
         <v>1.4</v>
       </c>
       <c r="E6" t="n">
-        <v>3520</v>
+        <v>4480</v>
       </c>
       <c r="F6" t="n">
-        <v>4480</v>
+        <v>224</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Marcelo</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -603,44 +633,54 @@
         <v>1.4</v>
       </c>
       <c r="E7" t="n">
-        <v>2530</v>
+        <v>3220</v>
       </c>
       <c r="F7" t="n">
-        <v>3220</v>
+        <v>161</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Henrique</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Academia</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Serviço</t>
+          <t>Produto</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="E8" t="n">
-        <v>104</v>
+        <v>16.8</v>
       </c>
       <c r="F8" t="n">
-        <v>104</v>
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Marcelo</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -651,106 +691,73 @@
         <v>1.4</v>
       </c>
       <c r="E9" t="n">
-        <v>13.2</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>16.8</v>
+        <v>0.21</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Luciana</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Feijão</t>
+          <t>Natação</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Produto</t>
+          <t>Serviço</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="E10" t="n">
-        <v>8.800000000000001</v>
+        <v>273</v>
       </c>
       <c r="F10" t="n">
-        <v>11.2</v>
+        <v>13.65</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Arthur</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Futebol</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Produto</t>
+          <t>Serviço</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="E11" t="n">
-        <v>3.3</v>
+        <v>92.3</v>
       </c>
       <c r="F11" t="n">
-        <v>4.199999999999999</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Natação</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>210</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Serviço</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E12" t="n">
-        <v>273</v>
-      </c>
-      <c r="F12" t="n">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Futebol</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>71</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Serviço</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E13" t="n">
-        <v>92.3</v>
-      </c>
-      <c r="F13" t="n">
-        <v>92.3</v>
+        <v>4.615</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Henrique</t>
+        </is>
       </c>
     </row>
   </sheetData>
